--- a/ReportData/ReportData_Pankaj.xlsx
+++ b/ReportData/ReportData_Pankaj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushpender.singh_bit\Desktop\Weekly Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAAF3ED-C384-4C33-9F90-6DDF1E53A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EE8BA-6DF4-4CBA-A934-8363FB5A2809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Project_Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Report_Title</t>
   </si>
   <si>
-    <t>BarGraph_show</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>["himanshu.nachane@bitsinglass.com","pankaj.sharma@bitsinglass.com"]</t>
+  </si>
+  <si>
+    <t>Graph_Type</t>
+  </si>
+  <si>
+    <t>PieChart</t>
+  </si>
+  <si>
+    <t>Graph_show</t>
+  </si>
+  <si>
+    <t>BugCount_show</t>
   </si>
 </sst>
 </file>
@@ -471,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.54296875" customWidth="1"/>
@@ -485,12 +494,12 @@
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -499,103 +508,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose value from list" sqref="B2" xr:uid="{C5E628BC-12AE-4F61-AEC7-08EA5CCBB662}">
       <formula1>"On Track, Off Track, Concerned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose value from list" sqref="B4" xr:uid="{5A1C816B-C67D-47B5-ACDD-AEE41AD47CD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose value from list" sqref="B4 B14" xr:uid="{5A1C816B-C67D-47B5-ACDD-AEE41AD47CD2}">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose value from list" sqref="B13" xr:uid="{4A1DBAED-2828-4075-9EB3-869860C9E8E3}">
+      <formula1>"PieChart, BarGraph"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -609,11 +637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="21.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -624,58 +652,58 @@
     <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C9" s="4"/>
     </row>
   </sheetData>
